--- a/REGULAR/OJT/PANALIGAN, GIL.xlsx
+++ b/REGULAR/OJT/PANALIGAN, GIL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="385">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2073,7 +2073,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2116,7 +2116,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2180,7 +2180,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,7 +2240,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2306,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2369,7 +2369,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2467,7 +2467,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2526,7 +2526,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2591,7 +2591,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2634,7 +2634,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2709,7 +2709,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2895,7 +2895,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2961,7 +2961,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3019,7 +3019,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3085,7 +3085,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3141,7 +3141,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3216,7 +3216,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3259,7 +3259,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3325,7 +3325,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3381,7 +3381,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3479,7 +3479,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3542,7 +3542,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3991,7 +3991,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2160" topLeftCell="A551" activePane="bottomLeft"/>
       <selection activeCell="D10" sqref="D10"/>
-      <selection pane="bottomLeft" activeCell="K566" sqref="K566"/>
+      <selection pane="bottomLeft" activeCell="I566" sqref="I566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4152,7 +4152,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>153.88499999999999</v>
+        <v>156.38499999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4162,7 +4162,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>235.125</v>
+        <v>236.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16412,13 +16412,15 @@
       <c r="B565" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C565" s="13"/>
+      <c r="C565" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D565" s="39"/>
       <c r="E565" s="9"/>
       <c r="F565" s="20"/>
-      <c r="G565" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G565" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H565" s="39">
         <v>3</v>
@@ -16434,19 +16436,27 @@
         <f t="shared" si="27"/>
         <v>45108</v>
       </c>
-      <c r="B566" s="20"/>
-      <c r="C566" s="13"/>
+      <c r="B566" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C566" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D566" s="39"/>
       <c r="E566" s="9"/>
       <c r="F566" s="20"/>
-      <c r="G566" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H566" s="39"/>
+      <c r="G566" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H566" s="39">
+        <v>1</v>
+      </c>
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
-      <c r="K566" s="20"/>
+      <c r="K566" s="53">
+        <v>45134</v>
+      </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
@@ -17518,7 +17528,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>389.01</v>
+        <v>393.01</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/OJT/PANALIGAN, GIL.xlsx
+++ b/REGULAR/OJT/PANALIGAN, GIL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="385">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2073,7 +2073,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2116,7 +2116,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2180,7 +2180,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,7 +2240,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2306,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2369,7 +2369,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2467,7 +2467,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2526,7 +2526,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2591,7 +2591,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2634,7 +2634,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2709,7 +2709,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2895,7 +2895,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2961,7 +2961,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3019,7 +3019,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3085,7 +3085,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3141,7 +3141,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3216,7 +3216,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3259,7 +3259,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3325,7 +3325,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3381,7 +3381,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3479,7 +3479,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3542,7 +3542,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3991,7 +3991,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2160" topLeftCell="A551" activePane="bottomLeft"/>
       <selection activeCell="D10" sqref="D10"/>
-      <selection pane="bottomLeft" activeCell="I566" sqref="I566"/>
+      <selection pane="bottomLeft" activeCell="I567" sqref="I567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4162,7 +4162,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>236.625</v>
+        <v>235.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16463,7 +16463,9 @@
         <f t="shared" si="27"/>
         <v>45139</v>
       </c>
-      <c r="B567" s="20"/>
+      <c r="B567" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C567" s="13"/>
       <c r="D567" s="39"/>
       <c r="E567" s="9"/>
@@ -16472,10 +16474,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H567" s="39"/>
+      <c r="H567" s="39">
+        <v>1</v>
+      </c>
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
-      <c r="K567" s="20"/>
+      <c r="K567" s="53">
+        <v>45140</v>
+      </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
@@ -17528,7 +17534,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>393.01</v>
+        <v>392.01</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/OJT/PANALIGAN, GIL.xlsx
+++ b/REGULAR/OJT/PANALIGAN, GIL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="389">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1189,6 +1189,18 @@
   </si>
   <si>
     <t>6/14-16/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>10/31 , 11/3/2023</t>
+  </si>
+  <si>
+    <t>12/27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -3608,7 +3620,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K622" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K624" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3986,12 +3998,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K622"/>
+  <dimension ref="A2:K624"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2160" topLeftCell="A551" activePane="bottomLeft"/>
+      <pane ySplit="2160" topLeftCell="A557" activePane="bottomLeft"/>
       <selection activeCell="D10" sqref="D10"/>
-      <selection pane="bottomLeft" activeCell="I567" sqref="I567"/>
+      <selection pane="bottomLeft" activeCell="K571" sqref="K571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4152,7 +4164,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>156.38499999999999</v>
+        <v>158.38499999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4162,7 +4174,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>235.625</v>
+        <v>238.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15848,7 +15860,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <f t="shared" ref="A539:A568" si="27">EDATE(A538,1)</f>
+        <f t="shared" ref="A539:A587" si="27">EDATE(A538,1)</f>
         <v>44348</v>
       </c>
       <c r="B539" s="20"/>
@@ -16466,13 +16478,15 @@
       <c r="B567" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C567" s="13"/>
+      <c r="C567" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D567" s="39"/>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
-      <c r="G567" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G567" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H567" s="39">
         <v>1</v>
@@ -16489,13 +16503,15 @@
         <v>45170</v>
       </c>
       <c r="B568" s="20"/>
-      <c r="C568" s="13"/>
+      <c r="C568" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D568" s="39"/>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
-      <c r="G568" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G568" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H568" s="39"/>
       <c r="I568" s="9"/>
@@ -16503,31 +16519,47 @@
       <c r="K568" s="20"/>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A569" s="40"/>
-      <c r="B569" s="20"/>
-      <c r="C569" s="13"/>
+      <c r="A569" s="40">
+        <f t="shared" si="27"/>
+        <v>45200</v>
+      </c>
+      <c r="B569" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C569" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D569" s="39"/>
       <c r="E569" s="9"/>
       <c r="F569" s="20"/>
-      <c r="G569" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H569" s="39"/>
+      <c r="G569" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H569" s="39">
+        <v>2</v>
+      </c>
       <c r="I569" s="9"/>
       <c r="J569" s="11"/>
-      <c r="K569" s="20"/>
+      <c r="K569" s="20" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A570" s="40"/>
+      <c r="A570" s="40">
+        <f t="shared" si="27"/>
+        <v>45231</v>
+      </c>
       <c r="B570" s="20"/>
-      <c r="C570" s="13"/>
+      <c r="C570" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D570" s="39"/>
       <c r="E570" s="9"/>
       <c r="F570" s="20"/>
-      <c r="G570" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G570" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H570" s="39"/>
       <c r="I570" s="9"/>
@@ -16535,10 +16567,17 @@
       <c r="K570" s="20"/>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A571" s="40"/>
-      <c r="B571" s="20"/>
+      <c r="A571" s="40">
+        <f t="shared" si="27"/>
+        <v>45261</v>
+      </c>
+      <c r="B571" s="20" t="s">
+        <v>195</v>
+      </c>
       <c r="C571" s="13"/>
-      <c r="D571" s="39"/>
+      <c r="D571" s="39">
+        <v>3</v>
+      </c>
       <c r="E571" s="9"/>
       <c r="F571" s="20"/>
       <c r="G571" s="13" t="str">
@@ -16548,10 +16587,14 @@
       <c r="H571" s="39"/>
       <c r="I571" s="9"/>
       <c r="J571" s="11"/>
-      <c r="K571" s="20"/>
+      <c r="K571" s="20" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A572" s="40"/>
+      <c r="A572" s="48" t="s">
+        <v>385</v>
+      </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
       <c r="D572" s="39"/>
@@ -16567,7 +16610,10 @@
       <c r="K572" s="20"/>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A573" s="40"/>
+      <c r="A573" s="40">
+        <f>EDATE(A571,1)</f>
+        <v>45292</v>
+      </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
       <c r="D573" s="39"/>
@@ -16583,7 +16629,10 @@
       <c r="K573" s="20"/>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A574" s="40"/>
+      <c r="A574" s="40">
+        <f t="shared" si="27"/>
+        <v>45323</v>
+      </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
       <c r="D574" s="39"/>
@@ -16599,7 +16648,10 @@
       <c r="K574" s="20"/>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A575" s="40"/>
+      <c r="A575" s="40">
+        <f t="shared" si="27"/>
+        <v>45352</v>
+      </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
       <c r="D575" s="39"/>
@@ -16615,7 +16667,10 @@
       <c r="K575" s="20"/>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A576" s="40"/>
+      <c r="A576" s="40">
+        <f t="shared" si="27"/>
+        <v>45383</v>
+      </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
       <c r="D576" s="39"/>
@@ -16631,7 +16686,10 @@
       <c r="K576" s="20"/>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A577" s="40"/>
+      <c r="A577" s="40">
+        <f t="shared" si="27"/>
+        <v>45413</v>
+      </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
       <c r="D577" s="39"/>
@@ -16647,7 +16705,10 @@
       <c r="K577" s="20"/>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A578" s="40"/>
+      <c r="A578" s="40">
+        <f t="shared" si="27"/>
+        <v>45444</v>
+      </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
       <c r="D578" s="39"/>
@@ -16663,7 +16724,10 @@
       <c r="K578" s="20"/>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A579" s="40"/>
+      <c r="A579" s="40">
+        <f t="shared" si="27"/>
+        <v>45474</v>
+      </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
       <c r="D579" s="39"/>
@@ -16679,7 +16743,10 @@
       <c r="K579" s="20"/>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A580" s="40"/>
+      <c r="A580" s="40">
+        <f t="shared" si="27"/>
+        <v>45505</v>
+      </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
       <c r="D580" s="39"/>
@@ -16695,7 +16762,10 @@
       <c r="K580" s="20"/>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A581" s="40"/>
+      <c r="A581" s="40">
+        <f t="shared" si="27"/>
+        <v>45536</v>
+      </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
       <c r="D581" s="39"/>
@@ -16711,7 +16781,10 @@
       <c r="K581" s="20"/>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A582" s="40"/>
+      <c r="A582" s="40">
+        <f t="shared" si="27"/>
+        <v>45566</v>
+      </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
       <c r="D582" s="39"/>
@@ -16727,7 +16800,10 @@
       <c r="K582" s="20"/>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A583" s="40"/>
+      <c r="A583" s="40">
+        <f t="shared" si="27"/>
+        <v>45597</v>
+      </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
       <c r="D583" s="39"/>
@@ -16743,7 +16819,10 @@
       <c r="K583" s="20"/>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A584" s="40"/>
+      <c r="A584" s="40">
+        <f t="shared" si="27"/>
+        <v>45627</v>
+      </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
       <c r="D584" s="39"/>
@@ -16759,7 +16838,9 @@
       <c r="K584" s="20"/>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A585" s="40"/>
+      <c r="A585" s="48" t="s">
+        <v>386</v>
+      </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
       <c r="D585" s="39"/>
@@ -16775,7 +16856,10 @@
       <c r="K585" s="20"/>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A586" s="40"/>
+      <c r="A586" s="40">
+        <f>EDATE(A584,1)</f>
+        <v>45658</v>
+      </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
       <c r="D586" s="39"/>
@@ -16791,7 +16875,10 @@
       <c r="K586" s="20"/>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A587" s="40"/>
+      <c r="A587" s="40">
+        <f t="shared" si="27"/>
+        <v>45689</v>
+      </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
       <c r="D587" s="39"/>
@@ -17351,20 +17438,52 @@
       <c r="K621" s="20"/>
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A622" s="41"/>
-      <c r="B622" s="15"/>
-      <c r="C622" s="42"/>
-      <c r="D622" s="43"/>
-      <c r="E622" s="51"/>
-      <c r="F622" s="15"/>
+      <c r="A622" s="40"/>
+      <c r="B622" s="20"/>
+      <c r="C622" s="13"/>
+      <c r="D622" s="39"/>
+      <c r="E622" s="9"/>
+      <c r="F622" s="20"/>
       <c r="G622" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H622" s="43"/>
-      <c r="I622" s="51"/>
-      <c r="J622" s="12"/>
-      <c r="K622" s="15"/>
+      <c r="H622" s="39"/>
+      <c r="I622" s="9"/>
+      <c r="J622" s="11"/>
+      <c r="K622" s="20"/>
+    </row>
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A623" s="40"/>
+      <c r="B623" s="20"/>
+      <c r="C623" s="13"/>
+      <c r="D623" s="39"/>
+      <c r="E623" s="9"/>
+      <c r="F623" s="20"/>
+      <c r="G623" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H623" s="39"/>
+      <c r="I623" s="9"/>
+      <c r="J623" s="11"/>
+      <c r="K623" s="20"/>
+    </row>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A624" s="41"/>
+      <c r="B624" s="15"/>
+      <c r="C624" s="42"/>
+      <c r="D624" s="43"/>
+      <c r="E624" s="51"/>
+      <c r="F624" s="15"/>
+      <c r="G624" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H624" s="43"/>
+      <c r="I624" s="51"/>
+      <c r="J624" s="12"/>
+      <c r="K624" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17534,7 +17653,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>392.01</v>
+        <v>397.01</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
